--- a/data/data_monitoreo_otuzco.xlsx
+++ b/data/data_monitoreo_otuzco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NAQUICHE MECHATO ENMA</t>
+          <t>NAQUICHE SILVA MARIA LIZETH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NAQUICHE SILVA MARIA LIZETH</t>
+          <t>NAQUICHE MECHATO ENMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -482,26 +482,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BECERRA ASMAT CAROL STEFANY</t>
+          <t>CORAS QUISPE JORGE AMERICO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>BECERRA ASMAT CAROL STEFANY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SAUCEDO CABRERA CARLOS ALEXANDER</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CASTREJON TELLO GRECIA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PACHECO ALISON</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>45752721</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>44591379</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/data_monitoreo_otuzco.xlsx
+++ b/data/data_monitoreo_otuzco.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -462,27 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MANOSALVA RUIZ SANDRA KAROLINE</t>
+          <t>CUBAS GARCIA ROSA ANITA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CUBAS GARCIA ROSA ANITA</t>
+          <t>MANOSALVA RUIZ SANDRA KAROLINE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAUCEDO CABRERA CARLOS ALEXANDER</t>
+          <t>PACHECO ALISON</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CASTREJON TELLO GRECIA</t>
+          <t>SAUCEDO CABRERA CARLOS ALEXANDER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PACHECO ALISON</t>
+          <t>CASTREJON TELLO GRECIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">

--- a/data/data_monitoreo_otuzco.xlsx
+++ b/data/data_monitoreo_otuzco.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NAQUICHE SILVA MARIA LIZETH</t>
+          <t>NAQUICHE MECHATO ENMA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NAQUICHE MECHATO ENMA</t>
+          <t>NAQUICHE SILVA MARIA LIZETH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CORAS QUISPE JORGE AMERICO</t>
+          <t>PACHECO ALISON</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,41 +498,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BECERRA ASMAT CAROL STEFANY</t>
+          <t>CORAS QUISPE JORGE AMERICO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PACHECO ALISON</t>
+          <t>CASTREJON TELLO GRECIA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SAUCEDO CABRERA CARLOS ALEXANDER</t>
+          <t>BECERRA ASMAT CAROL STEFANY</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CASTREJON TELLO GRECIA</t>
+          <t>SAUCEDO CABRERA CARLOS ALEXANDER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">

--- a/data/data_monitoreo_otuzco.xlsx
+++ b/data/data_monitoreo_otuzco.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -482,33 +482,33 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PACHECO ALISON</t>
+          <t>CORAS QUISPE JORGE AMERICO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CORAS QUISPE JORGE AMERICO</t>
+          <t>BECERRA ASMAT CAROL STEFANY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CASTREJON TELLO GRECIA</t>
+          <t>PACHECO ALISON</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,11 +518,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BECERRA ASMAT CAROL STEFANY</t>
+          <t>CASTREJON TELLO GRECIA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">

--- a/data/data_monitoreo_otuzco.xlsx
+++ b/data/data_monitoreo_otuzco.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
@@ -472,27 +472,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MANOSALVA RUIZ SANDRA KAROLINE</t>
+          <t>CORAS QUISPE JORGE AMERICO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CORAS QUISPE JORGE AMERICO</t>
+          <t>MANOSALVA RUIZ SANDRA KAROLINE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -512,27 +512,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CASTREJON TELLO GRECIA</t>
+          <t>SAUCEDO CABRERA CARLOS ALEXANDER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SAUCEDO CABRERA CARLOS ALEXANDER</t>
+          <t>CASTREJON TELLO GRECIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">

--- a/data/data_monitoreo_otuzco.xlsx
+++ b/data/data_monitoreo_otuzco.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -492,37 +492,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BECERRA ASMAT CAROL STEFANY</t>
+          <t>SAUCEDO CABRERA CARLOS ALEXANDER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PACHECO ALISON</t>
+          <t>BECERRA ASMAT CAROL STEFANY</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SAUCEDO CABRERA CARLOS ALEXANDER</t>
+          <t>PACHECO ALISON</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
